--- a/data_quarter/zb/工业/主要工业产品的销售与库存/精制食用植物油.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/精制食用植物油.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,45 +454,67 @@
           <t>精制食用植物油销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>精制食用植物油产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>精制食用植物油销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.5</v>
+        <v>94.7</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>79.3</v>
+        <v>44.7</v>
       </c>
       <c r="E2" t="n">
-        <v>808.3</v>
+        <v>509.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>509.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>44.7</v>
+        <v>79.3</v>
       </c>
       <c r="E3" t="n">
-        <v>509.8</v>
+        <v>808.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="G3" t="n">
+        <v>298.4999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -505,11 +527,17 @@
       <c r="E4" t="n">
         <v>1163.6</v>
       </c>
+      <c r="F4" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>355.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,45 +550,63 @@
       <c r="E5" t="n">
         <v>290.8</v>
       </c>
+      <c r="F5" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>290.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>25.3</v>
+        <v>7.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1050.2</v>
+        <v>654.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="G6" t="n">
+        <v>363.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>7.2</v>
+        <v>25.3</v>
       </c>
       <c r="E7" t="n">
-        <v>654.7</v>
+        <v>1050.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>395.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -573,11 +619,17 @@
       <c r="E8" t="n">
         <v>1551.9</v>
       </c>
+      <c r="F8" t="n">
+        <v>1.100000000000009</v>
+      </c>
+      <c r="G8" t="n">
+        <v>501.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,45 +642,63 @@
       <c r="E9" t="n">
         <v>392.4</v>
       </c>
+      <c r="F9" t="n">
+        <v>5.699999999999989</v>
+      </c>
+      <c r="G9" t="n">
+        <v>392.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.8</v>
+        <v>104.8</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>-14.4</v>
+        <v>-34.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1357.8</v>
+        <v>881</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.200000000000003</v>
+      </c>
+      <c r="G10" t="n">
+        <v>488.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.8</v>
+        <v>99.8</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>-34.2</v>
+        <v>-14.4</v>
       </c>
       <c r="E11" t="n">
-        <v>881</v>
+        <v>1357.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>476.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -641,11 +711,17 @@
       <c r="E12" t="n">
         <v>1905.4</v>
       </c>
+      <c r="F12" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>547.6000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -658,45 +734,63 @@
       <c r="E13" t="n">
         <v>474.3</v>
       </c>
+      <c r="F13" t="n">
+        <v>3.399999999999991</v>
+      </c>
+      <c r="G13" t="n">
+        <v>474.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E14" t="n">
-        <v>1586.4</v>
+        <v>1019.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>545.4000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>-3.6</v>
+        <v>-3.8</v>
       </c>
       <c r="E15" t="n">
-        <v>1019.7</v>
+        <v>1586.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>566.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -709,11 +803,17 @@
       <c r="E16" t="n">
         <v>2252.5</v>
       </c>
+      <c r="F16" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>666.0999999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -726,45 +826,63 @@
       <c r="E17" t="n">
         <v>519</v>
       </c>
+      <c r="F17" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>519</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>41.7</v>
+        <v>26.2</v>
       </c>
       <c r="E18" t="n">
-        <v>1671.6</v>
+        <v>1103.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.200000000000003</v>
+      </c>
+      <c r="G18" t="n">
+        <v>584.0999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>26.2</v>
+        <v>41.7</v>
       </c>
       <c r="E19" t="n">
-        <v>1103.1</v>
+        <v>1671.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>97</v>
+      </c>
+      <c r="G19" t="n">
+        <v>568.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -777,11 +895,17 @@
       <c r="E20" t="n">
         <v>2333.1</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="G20" t="n">
+        <v>661.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -794,45 +918,63 @@
       <c r="E21" t="n">
         <v>642.9</v>
       </c>
+      <c r="F21" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>642.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>71.2</v>
       </c>
       <c r="E22" t="n">
-        <v>2271.5</v>
+        <v>1435.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>92</v>
+      </c>
+      <c r="G22" t="n">
+        <v>792.1999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>71.2</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
-        <v>1435.1</v>
+        <v>2271.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.400000000000006</v>
+      </c>
+      <c r="G23" t="n">
+        <v>836.4000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -845,11 +987,17 @@
       <c r="E24" t="n">
         <v>3180.8</v>
       </c>
+      <c r="F24" t="n">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="G24" t="n">
+        <v>909.3000000000002</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -862,45 +1010,63 @@
       <c r="E25" t="n">
         <v>749.2</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="G25" t="n">
+        <v>749.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>27.3</v>
+        <v>29.5</v>
       </c>
       <c r="E26" t="n">
-        <v>2653.8</v>
+        <v>1614.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>865.5999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="E27" t="n">
-        <v>1614.8</v>
+        <v>2653.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1039</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -913,11 +1079,17 @@
       <c r="E28" t="n">
         <v>3806.9</v>
       </c>
+      <c r="F28" t="n">
+        <v>1.300000000000011</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1153.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -930,45 +1102,63 @@
       <c r="E29" t="n">
         <v>958.6</v>
       </c>
+      <c r="F29" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>958.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>14.1</v>
+        <v>13.2</v>
       </c>
       <c r="E30" t="n">
-        <v>3017</v>
+        <v>1905.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="G30" t="n">
+        <v>947.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.3</v>
+        <v>98.8</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="E31" t="n">
-        <v>1905.7</v>
+        <v>3017</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1111.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -981,11 +1171,17 @@
       <c r="E32" t="n">
         <v>4248.7</v>
       </c>
+      <c r="F32" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1231.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -998,45 +1194,63 @@
       <c r="E33" t="n">
         <v>1060.1</v>
       </c>
+      <c r="F33" t="n">
+        <v>4.100000000000009</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1060.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.09999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>22.8</v>
+        <v>13.5</v>
       </c>
       <c r="E34" t="n">
-        <v>3546.5</v>
+        <v>2315.9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1255.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>13.5</v>
+        <v>22.8</v>
       </c>
       <c r="E35" t="n">
-        <v>2315.9</v>
+        <v>3546.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1230.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1049,11 +1263,17 @@
       <c r="E36" t="n">
         <v>5052.7</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1506.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1068,49 +1288,67 @@
       <c r="E37" t="n">
         <v>1567.75991</v>
       </c>
+      <c r="F37" t="n">
+        <v>5.700000000000003</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1567.75991</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="C38" t="n">
-        <v>1.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D38" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="E38" t="n">
-        <v>4685.70662</v>
+        <v>3049.32514</v>
+      </c>
+      <c r="F38" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1481.56523</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2</v>
+        <v>1.1</v>
       </c>
       <c r="D39" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="E39" t="n">
-        <v>3049.32514</v>
+        <v>4685.70662</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1636.38148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1125,11 +1363,17 @@
       <c r="E40" t="n">
         <v>6574.39423</v>
       </c>
+      <c r="F40" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1888.68761</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1144,49 +1388,67 @@
       <c r="E41" t="n">
         <v>1506.73481</v>
       </c>
+      <c r="F41" t="n">
+        <v>2.599999999999994</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1506.73481</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
       <c r="D42" t="n">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="E42" t="n">
-        <v>4676.11</v>
+        <v>3210.88009</v>
+      </c>
+      <c r="F42" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1704.14528</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D43" t="n">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="E43" t="n">
-        <v>3210.88009</v>
+        <v>4676.11</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1465.22991</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1201,11 +1463,17 @@
       <c r="E44" t="n">
         <v>5852.60524</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1176.49524</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1220,49 +1488,67 @@
       <c r="E45" t="n">
         <v>1323.41446</v>
       </c>
+      <c r="F45" t="n">
+        <v>7.400000000000006</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1323.41446</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.6</v>
+        <v>103</v>
       </c>
       <c r="C46" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.5</v>
+        <v>-13.7</v>
       </c>
       <c r="E46" t="n">
-        <v>3712.19607</v>
+        <v>2514.49266</v>
+      </c>
+      <c r="F46" t="n">
+        <v>103</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1191.0782</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>103</v>
+        <v>100.6</v>
       </c>
       <c r="C47" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="D47" t="n">
-        <v>-13.7</v>
+        <v>-4.5</v>
       </c>
       <c r="E47" t="n">
-        <v>2514.49266</v>
+        <v>3712.19607</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1197.70341</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1277,11 +1563,17 @@
       <c r="E48" t="n">
         <v>4857.49051</v>
       </c>
+      <c r="F48" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1145.29444</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1296,49 +1588,67 @@
       <c r="E49" t="n">
         <v>1211.57613</v>
       </c>
+      <c r="F49" t="n">
+        <v>4.599999999999994</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1211.57613</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D50" t="n">
-        <v>-5.2</v>
+        <v>-7</v>
       </c>
       <c r="E50" t="n">
-        <v>3775.37741</v>
+        <v>2421.24532</v>
+      </c>
+      <c r="F50" t="n">
+        <v>101</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1209.66919</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>101</v>
+        <v>100.3</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D51" t="n">
-        <v>-7</v>
+        <v>-5.2</v>
       </c>
       <c r="E51" t="n">
-        <v>2421.24532</v>
+        <v>3775.37741</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1354.13209</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1352,6 +1662,12 @@
       </c>
       <c r="E52" t="n">
         <v>5220.7059</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1445.32849</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/精制食用植物油.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/精制食用植物油.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,61 +454,39 @@
           <t>精制食用植物油销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>精制食用植物油产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>精制食用植物油销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.7</v>
+        <v>95.5</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>44.7</v>
+        <v>79.3</v>
       </c>
       <c r="E2" t="n">
-        <v>509.8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>509.8</v>
+        <v>808.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.5</v>
+        <v>94.7</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>79.3</v>
+        <v>44.7</v>
       </c>
       <c r="E3" t="n">
-        <v>808.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="G3" t="n">
-        <v>298.4999999999999</v>
+        <v>509.8</v>
       </c>
     </row>
     <row r="4">
@@ -527,12 +505,6 @@
       <c r="E4" t="n">
         <v>1163.6</v>
       </c>
-      <c r="F4" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>355.3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -550,57 +522,39 @@
       <c r="E5" t="n">
         <v>290.8</v>
       </c>
-      <c r="F5" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>290.8</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>7.2</v>
+        <v>25.3</v>
       </c>
       <c r="E6" t="n">
-        <v>654.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="G6" t="n">
-        <v>363.9</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>25.3</v>
+        <v>7.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1050.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>395.5</v>
+        <v>654.7</v>
       </c>
     </row>
     <row r="8">
@@ -619,12 +573,6 @@
       <c r="E8" t="n">
         <v>1551.9</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="G8" t="n">
-        <v>501.7</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -642,57 +590,39 @@
       <c r="E9" t="n">
         <v>392.4</v>
       </c>
-      <c r="F9" t="n">
-        <v>5.699999999999989</v>
-      </c>
-      <c r="G9" t="n">
-        <v>392.4</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.8</v>
+        <v>99.8</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>-34.2</v>
+        <v>-14.4</v>
       </c>
       <c r="E10" t="n">
-        <v>881</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="G10" t="n">
-        <v>488.6</v>
+        <v>1357.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.8</v>
+        <v>104.8</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>-14.4</v>
+        <v>-34.2</v>
       </c>
       <c r="E11" t="n">
-        <v>1357.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>476.8</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12">
@@ -711,12 +641,6 @@
       <c r="E12" t="n">
         <v>1905.4</v>
       </c>
-      <c r="F12" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>547.6000000000001</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -734,57 +658,39 @@
       <c r="E13" t="n">
         <v>474.3</v>
       </c>
-      <c r="F13" t="n">
-        <v>3.399999999999991</v>
-      </c>
-      <c r="G13" t="n">
-        <v>474.3</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>-3.6</v>
+        <v>-3.8</v>
       </c>
       <c r="E14" t="n">
-        <v>1019.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>545.4000000000001</v>
+        <v>1586.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E15" t="n">
-        <v>1586.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>566.7</v>
+        <v>1019.7</v>
       </c>
     </row>
     <row r="16">
@@ -803,12 +709,6 @@
       <c r="E16" t="n">
         <v>2252.5</v>
       </c>
-      <c r="F16" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>666.0999999999999</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -826,57 +726,39 @@
       <c r="E17" t="n">
         <v>519</v>
       </c>
-      <c r="F17" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>519</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>26.2</v>
+        <v>41.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1103.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="G18" t="n">
-        <v>584.0999999999999</v>
+        <v>1671.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>41.7</v>
+        <v>26.2</v>
       </c>
       <c r="E19" t="n">
-        <v>1671.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>97</v>
-      </c>
-      <c r="G19" t="n">
-        <v>568.5</v>
+        <v>1103.1</v>
       </c>
     </row>
     <row r="20">
@@ -895,12 +777,6 @@
       <c r="E20" t="n">
         <v>2333.1</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="G20" t="n">
-        <v>661.5</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -918,57 +794,39 @@
       <c r="E21" t="n">
         <v>642.9</v>
       </c>
-      <c r="F21" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="G21" t="n">
-        <v>642.9</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>71.2</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
-        <v>1435.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>92</v>
-      </c>
-      <c r="G22" t="n">
-        <v>792.1999999999999</v>
+        <v>2271.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>95.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>71.2</v>
       </c>
       <c r="E23" t="n">
-        <v>2271.5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="G23" t="n">
-        <v>836.4000000000001</v>
+        <v>1435.1</v>
       </c>
     </row>
     <row r="24">
@@ -987,12 +845,6 @@
       <c r="E24" t="n">
         <v>3180.8</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="G24" t="n">
-        <v>909.3000000000002</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1010,57 +862,39 @@
       <c r="E25" t="n">
         <v>749.2</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="G25" t="n">
-        <v>749.2</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="E26" t="n">
-        <v>1614.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>865.5999999999999</v>
+        <v>2653.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>27.3</v>
+        <v>29.5</v>
       </c>
       <c r="E27" t="n">
-        <v>2653.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1039</v>
+        <v>1614.8</v>
       </c>
     </row>
     <row r="28">
@@ -1079,12 +913,6 @@
       <c r="E28" t="n">
         <v>3806.9</v>
       </c>
-      <c r="F28" t="n">
-        <v>1.300000000000011</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1153.1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1102,57 +930,39 @@
       <c r="E29" t="n">
         <v>958.6</v>
       </c>
-      <c r="F29" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="G29" t="n">
-        <v>958.6</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.3</v>
+        <v>98.8</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="E30" t="n">
-        <v>1905.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="G30" t="n">
-        <v>947.1</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>14.1</v>
+        <v>13.2</v>
       </c>
       <c r="E31" t="n">
-        <v>3017</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1111.3</v>
+        <v>1905.7</v>
       </c>
     </row>
     <row r="32">
@@ -1171,12 +981,6 @@
       <c r="E32" t="n">
         <v>4248.7</v>
       </c>
-      <c r="F32" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1231.7</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1194,57 +998,39 @@
       <c r="E33" t="n">
         <v>1060.1</v>
       </c>
-      <c r="F33" t="n">
-        <v>4.100000000000009</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1060.1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>13.5</v>
+        <v>22.8</v>
       </c>
       <c r="E34" t="n">
-        <v>2315.9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1255.8</v>
+        <v>3546.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.09999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>22.8</v>
+        <v>13.5</v>
       </c>
       <c r="E35" t="n">
-        <v>3546.5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1230.6</v>
+        <v>2315.9</v>
       </c>
     </row>
     <row r="36">
@@ -1263,12 +1049,6 @@
       <c r="E36" t="n">
         <v>5052.7</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1506.2</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1288,61 +1068,43 @@
       <c r="E37" t="n">
         <v>1567.75991</v>
       </c>
-      <c r="F37" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1567.75991</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2</v>
+        <v>1.1</v>
       </c>
       <c r="D38" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="E38" t="n">
-        <v>3049.32514</v>
-      </c>
-      <c r="F38" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1481.56523</v>
+        <v>4685.70662</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D39" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="E39" t="n">
-        <v>4685.70662</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1636.38148</v>
+        <v>3049.32514</v>
       </c>
     </row>
     <row r="40">
@@ -1363,12 +1125,6 @@
       <c r="E40" t="n">
         <v>6574.39423</v>
       </c>
-      <c r="F40" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1888.68761</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1388,61 +1144,43 @@
       <c r="E41" t="n">
         <v>1506.73481</v>
       </c>
-      <c r="F41" t="n">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1506.73481</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D42" t="n">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="E42" t="n">
-        <v>3210.88009</v>
-      </c>
-      <c r="F42" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1704.14528</v>
+        <v>4676.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
       <c r="D43" t="n">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="E43" t="n">
-        <v>4676.11</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1465.22991</v>
+        <v>3210.88009</v>
       </c>
     </row>
     <row r="44">
@@ -1463,12 +1201,6 @@
       <c r="E44" t="n">
         <v>5852.60524</v>
       </c>
-      <c r="F44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1176.49524</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1488,61 +1220,43 @@
       <c r="E45" t="n">
         <v>1323.41446</v>
       </c>
-      <c r="F45" t="n">
-        <v>7.400000000000006</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1323.41446</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103</v>
+        <v>100.6</v>
       </c>
       <c r="C46" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="D46" t="n">
-        <v>-13.7</v>
+        <v>-4.5</v>
       </c>
       <c r="E46" t="n">
-        <v>2514.49266</v>
-      </c>
-      <c r="F46" t="n">
-        <v>103</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1191.0782</v>
+        <v>3712.19607</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.6</v>
+        <v>103</v>
       </c>
       <c r="C47" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.5</v>
+        <v>-13.7</v>
       </c>
       <c r="E47" t="n">
-        <v>3712.19607</v>
-      </c>
-      <c r="F47" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1197.70341</v>
+        <v>2514.49266</v>
       </c>
     </row>
     <row r="48">
@@ -1563,12 +1277,6 @@
       <c r="E48" t="n">
         <v>4857.49051</v>
       </c>
-      <c r="F48" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1145.29444</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1588,61 +1296,43 @@
       <c r="E49" t="n">
         <v>1211.57613</v>
       </c>
-      <c r="F49" t="n">
-        <v>4.599999999999994</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1211.57613</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>101</v>
+        <v>100.3</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D50" t="n">
-        <v>-7</v>
+        <v>-5.2</v>
       </c>
       <c r="E50" t="n">
-        <v>2421.24532</v>
-      </c>
-      <c r="F50" t="n">
-        <v>101</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1209.66919</v>
+        <v>3775.37741</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.2</v>
+        <v>-7</v>
       </c>
       <c r="E51" t="n">
-        <v>3775.37741</v>
-      </c>
-      <c r="F51" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1354.13209</v>
+        <v>2421.24532</v>
       </c>
     </row>
     <row r="52">
@@ -1662,12 +1352,6 @@
       </c>
       <c r="E52" t="n">
         <v>5220.7059</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1445.32849</v>
       </c>
     </row>
   </sheetData>
